--- a/Examples/output/data_schema_properties_2016.xlsx
+++ b/Examples/output/data_schema_properties_2016.xlsx
@@ -53,7 +53,7 @@
     <t>numeric</t>
   </si>
   <si>
-    <t>[13008151, 12445474, 12773517, 17142187, 11507494]</t>
+    <t>[10872327, 11463540, 12382977, 12257474, 12715861]</t>
   </si>
   <si>
     <t>airconditioningtypeid</t>
@@ -71,37 +71,37 @@
     <t>basementsqft</t>
   </si>
   <si>
-    <t>[516.0, 216.0, 224.0, 516.0, 732.0]</t>
+    <t>[600.0, 555.0, 216.0, 600.0, 600.0]</t>
   </si>
   <si>
     <t>bathroomcnt</t>
   </si>
   <si>
-    <t>[2.0, 2.0, 3.0, 2.0, 2.5]</t>
+    <t>[1.0, 2.0, 3.0, 4.0, 2.0]</t>
   </si>
   <si>
     <t>bedroomcnt</t>
   </si>
   <si>
-    <t>[3.0, 3.0, 3.0, 3.0, 2.0]</t>
+    <t>[4.0, 2.0, 3.0, 0.0, 3.0]</t>
   </si>
   <si>
     <t>buildingclasstypeid</t>
   </si>
   <si>
-    <t>[3.0, 4.0, 3.0, 4.0, 3.0]</t>
+    <t>[4.0, 3.0, 4.0, 4.0, 4.0]</t>
   </si>
   <si>
     <t>buildingqualitytypeid</t>
   </si>
   <si>
-    <t>[7.0, 10.0, 7.0, 4.0, 7.0]</t>
+    <t>[4.0, 4.0, 4.0, 4.0, 4.0]</t>
   </si>
   <si>
     <t>calculatedbathnbr</t>
   </si>
   <si>
-    <t>[6.0, 1.0, 2.0, 1.0, 1.0]</t>
+    <t>[2.0, 1.0, 3.0, 2.5, 3.0]</t>
   </si>
   <si>
     <t>decktypeid</t>
@@ -113,49 +113,49 @@
     <t>finishedfloor1squarefeet</t>
   </si>
   <si>
-    <t>[841.0, 1239.0, 668.0, 1746.0, 1023.0]</t>
+    <t>[1275.0, 1050.0, 1264.0, 1292.0, 1906.0]</t>
   </si>
   <si>
     <t>calculatedfinishedsquarefeet</t>
   </si>
   <si>
-    <t>[1630.0, 1730.0, 1190.0, 2291.0, 1672.0]</t>
+    <t>[1672.0, 1901.0, 1524.0, 1357.0, 1020.0]</t>
   </si>
   <si>
     <t>finishedsquarefeet12</t>
   </si>
   <si>
-    <t>[1853.0, 1294.0, 2298.0, 2342.0, 1562.0]</t>
+    <t>[2051.0, 2175.0, 1424.0, 1484.0, 2393.0]</t>
   </si>
   <si>
     <t>finishedsquarefeet13</t>
   </si>
   <si>
-    <t>[1440.0, 1296.0, 1100.0, 1440.0, 1464.0]</t>
+    <t>[960.0, 1000.0, 1100.0, 918.0, 1248.0]</t>
   </si>
   <si>
     <t>finishedsquarefeet15</t>
   </si>
   <si>
-    <t>[2291.0, 1280.0, 3243.0, 1226.0, 2298.0]</t>
+    <t>[1795.0, 1832.0, 1110.0, 3480.0, 3498.0]</t>
   </si>
   <si>
     <t>finishedsquarefeet50</t>
   </si>
   <si>
-    <t>[1273.0, 1062.0, 3628.0, 1066.0, 1374.0]</t>
+    <t>[1083.0, 4969.0, 1190.0, 623.0, 1376.0]</t>
   </si>
   <si>
     <t>finishedsquarefeet6</t>
   </si>
   <si>
-    <t>[2237.0, 1084.0, 935.0, 1939.0, 1833.0]</t>
+    <t>[1833.0, 996.0, 15341.0, 935.0, 1287.0]</t>
   </si>
   <si>
     <t>fips</t>
   </si>
   <si>
-    <t>[6037, 6037, 6037, 6037, 6037]</t>
+    <t>[6037, 6037, 6037, 6111, 6037]</t>
   </si>
   <si>
     <t>fireplacecnt</t>
@@ -164,19 +164,19 @@
     <t>fullbathcnt</t>
   </si>
   <si>
-    <t>[1.0, 1.0, 2.0, 1.0, 2.0]</t>
+    <t>[1.0, 2.0, 2.0, 1.0, 2.0]</t>
   </si>
   <si>
     <t>garagecarcnt</t>
   </si>
   <si>
-    <t>[2.0, 2.0, 2.0, 2.0, 2.0]</t>
+    <t>[1.0, 2.0, 3.0, 1.0, 1.0]</t>
   </si>
   <si>
     <t>garagetotalsqft</t>
   </si>
   <si>
-    <t>[441.0, 360.0, 260.0, 441.0, 508.0]</t>
+    <t>[477.0, 420.0, 780.0, 400.0, 430.0]</t>
   </si>
   <si>
     <t>hashottuborspa</t>
@@ -191,22 +191,25 @@
     <t>heatingorsystemtypeid</t>
   </si>
   <si>
+    <t>[2.0, 7.0, 7.0, 2.0, 2.0]</t>
+  </si>
+  <si>
     <t>latitude</t>
   </si>
   <si>
-    <t>[33989166, 34252462, 34059784, 33844700, 34047114]</t>
+    <t>[34670730, 34015700, 34266263, 34018508, 33785027]</t>
   </si>
   <si>
     <t>longitude</t>
   </si>
   <si>
-    <t>[-118527175, -118374630, -118430456, -118168176, -118353878]</t>
+    <t>[-118216389, -117983014, -118023531, -118433762, -118180653]</t>
   </si>
   <si>
     <t>lotsizesquarefeet</t>
   </si>
   <si>
-    <t>[6100.0, 8891.0, 6219.0, 6390.0, 7218.0]</t>
+    <t>[56188.0, 25031.0, 9000.0, 7513.0, 8511.0]</t>
   </si>
   <si>
     <t>poolcnt</t>
@@ -215,7 +218,7 @@
     <t>poolsizesum</t>
   </si>
   <si>
-    <t>[450.0, 429.0, 450.0, 800.0, 782.0]</t>
+    <t>[448.0, 450.0, 560.0, 496.0, 350.0]</t>
   </si>
   <si>
     <t>pooltypeid10</t>
@@ -230,31 +233,31 @@
     <t>propertycountylandusecode</t>
   </si>
   <si>
-    <t>['0100', '0101', '0100', '0100', '0101']</t>
+    <t>['120C', '122', '0100', '0400', '0100']</t>
   </si>
   <si>
     <t>propertylandusetypeid</t>
   </si>
   <si>
-    <t>[261, 246, 261, 261, 248]</t>
+    <t>[261, 261, 266, 248, 266]</t>
   </si>
   <si>
     <t>propertyzoningdesc</t>
   </si>
   <si>
-    <t>['LVSP814*', 'CORH*', 'GAR1', 'LCCPD-RPD1', 'LAR1']</t>
+    <t>['LCR1YY', 'INR1YY', 'LAR2', 'LARE15', 'LARE20']</t>
   </si>
   <si>
     <t>rawcensustractandblock</t>
   </si>
   <si>
-    <t>[60376006.01300601, 60375359.02100799, 61110064.00400501, 60375010.022011, 60372679.02300601]</t>
+    <t>[60378003.325018, 60375734.022006005, 60377001.015002005, 60371276.041008994, 60376002.022004]</t>
   </si>
   <si>
     <t>regionidcity</t>
   </si>
   <si>
-    <t>[396054.0, 46298.0, 12447.0, 54722.0, 54722.0]</t>
+    <t>[10723.0, 20008.0, 10734.0, 12447.0, 24245.0]</t>
   </si>
   <si>
     <t>regionidcounty</t>
@@ -266,13 +269,13 @@
     <t>regionidneighborhood</t>
   </si>
   <si>
-    <t>[273263.0, 48200.0, 274049.0, 32059.0, 273400.0]</t>
+    <t>[114808.0, 118208.0, 54300.0, 37739.0, 30731.0]</t>
   </si>
   <si>
     <t>regionidzip</t>
   </si>
   <si>
-    <t>[97318.0, 96525.0, 96123.0, 97329.0, 96023.0]</t>
+    <t>[95992.0, 96366.0, 96238.0, 96220.0, 96237.0]</t>
   </si>
   <si>
     <t>roomcnt</t>
@@ -302,27 +305,24 @@
     <t>yardbuildingsqft17</t>
   </si>
   <si>
-    <t>[1145.0, 148.0, 868.0, 180.0, 120.0]</t>
+    <t>[300.0, 130.0, 328.0, 162.0, 384.0]</t>
   </si>
   <si>
     <t>yardbuildingsqft26</t>
   </si>
   <si>
-    <t>[560.0, 96.0, 560.0, 160.0, 160.0]</t>
+    <t>[560.0, 1280.0, 253.0, 300.0, 26.0]</t>
   </si>
   <si>
     <t>yearbuilt</t>
   </si>
   <si>
-    <t>[1974.0, 1949.0, 1934.0, 1957.0, 1915.0]</t>
+    <t>[1921.0, 1923.0, 1924.0, 1949.0, 1953.0]</t>
   </si>
   <si>
     <t>numberofstories</t>
   </si>
   <si>
-    <t>[1.0, 1.0, 1.0, 1.0, 2.0]</t>
-  </si>
-  <si>
     <t>fireplaceflag</t>
   </si>
   <si>
@@ -332,13 +332,13 @@
     <t>structuretaxvaluedollarcnt</t>
   </si>
   <si>
-    <t>[105587.0, 37100.0, 188117.0, 324979.0, 342611.0]</t>
+    <t>[106055.0, 94589.0, 199000.0, 126667.0, 286858.0]</t>
   </si>
   <si>
     <t>taxvaluedollarcnt</t>
   </si>
   <si>
-    <t>[100748.0, 58092.0, 648992.0, 25039.0, 485000.0]</t>
+    <t>[152770.0, 708000.0, 322000.0, 22794.0, 258696.0]</t>
   </si>
   <si>
     <t>assessmentyear</t>
@@ -350,13 +350,13 @@
     <t>landtaxvaluedollarcnt</t>
   </si>
   <si>
-    <t>[81214.0, 42839.0, 354291.0, 1040379.0, 163453.0]</t>
+    <t>[405061.0, 52254.0, 59132.0, 22101269.0, 124397.0]</t>
   </si>
   <si>
     <t>taxamount</t>
   </si>
   <si>
-    <t>[7384.23, 1613.99, 5628.65, 2924.45, 5491.85]</t>
+    <t>[4072.73, 1130.85, 965.36, 3142.6, 2357.76]</t>
   </si>
   <si>
     <t>taxdelinquencyflag</t>
@@ -368,13 +368,13 @@
     <t>taxdelinquencyyear</t>
   </si>
   <si>
-    <t>[15.0, 14.0, 12.0, 13.0, 15.0]</t>
+    <t>[14.0, 15.0, 15.0, 15.0, 15.0]</t>
   </si>
   <si>
     <t>censustractandblock</t>
   </si>
   <si>
-    <t>[60372717021004.0, 60374315022018.0, 60374826002024.0, 60374012023008.0, 60379108052051.0]</t>
+    <t>[60374639002004.0, 60374318002002.0, 60590014011020.0, 61110016022000.0, 60372719021000.0]</t>
   </si>
 </sst>
 </file>
@@ -1605,7 +1605,7 @@
         <v>1</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="E25" s="4" t="n">
         <v>5</v>
@@ -1628,7 +1628,7 @@
     </row>
     <row customHeight="1" ht="20" r="26" spans="1:10">
       <c r="A26" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>11</v>
@@ -1637,7 +1637,7 @@
         <v>1</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E26" s="4" t="n">
         <v>10614</v>
@@ -1660,7 +1660,7 @@
     </row>
     <row customHeight="1" ht="20" r="27" spans="1:10">
       <c r="A27" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>11</v>
@@ -1669,7 +1669,7 @@
         <v>1</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E27" s="4" t="n">
         <v>10322</v>
@@ -1692,7 +1692,7 @@
     </row>
     <row customHeight="1" ht="20" r="28" spans="1:10">
       <c r="A28" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>11</v>
@@ -1701,7 +1701,7 @@
         <v>1</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E28" s="4" t="n">
         <v>6492</v>
@@ -1724,7 +1724,7 @@
     </row>
     <row customHeight="1" ht="20" r="29" spans="1:10">
       <c r="A29" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>11</v>
@@ -1756,7 +1756,7 @@
     </row>
     <row customHeight="1" ht="20" r="30" spans="1:10">
       <c r="A30" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>11</v>
@@ -1765,7 +1765,7 @@
         <v>1</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E30" s="4" t="n">
         <v>65</v>
@@ -1788,7 +1788,7 @@
     </row>
     <row customHeight="1" ht="20" r="31" spans="1:10">
       <c r="A31" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>11</v>
@@ -1820,7 +1820,7 @@
     </row>
     <row customHeight="1" ht="20" r="32" spans="1:10">
       <c r="A32" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>11</v>
@@ -1852,7 +1852,7 @@
     </row>
     <row customHeight="1" ht="20" r="33" spans="1:10">
       <c r="A33" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>11</v>
@@ -1884,7 +1884,7 @@
     </row>
     <row customHeight="1" ht="20" r="34" spans="1:10">
       <c r="A34" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>55</v>
@@ -1893,7 +1893,7 @@
         <v>1</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E34" s="4" t="n">
         <v>62</v>
@@ -1916,7 +1916,7 @@
     </row>
     <row customHeight="1" ht="20" r="35" spans="1:10">
       <c r="A35" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>11</v>
@@ -1925,7 +1925,7 @@
         <v>1</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E35" s="4" t="n">
         <v>13</v>
@@ -1948,7 +1948,7 @@
     </row>
     <row customHeight="1" ht="20" r="36" spans="1:10">
       <c r="A36" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>55</v>
@@ -1957,7 +1957,7 @@
         <v>1</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E36" s="4" t="n">
         <v>1054</v>
@@ -1980,7 +1980,7 @@
     </row>
     <row customHeight="1" ht="20" r="37" spans="1:10">
       <c r="A37" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>11</v>
@@ -1989,7 +1989,7 @@
         <v>1</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E37" s="4" t="n">
         <v>10006</v>
@@ -2012,7 +2012,7 @@
     </row>
     <row customHeight="1" ht="20" r="38" spans="1:10">
       <c r="A38" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>11</v>
@@ -2021,7 +2021,7 @@
         <v>1</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E38" s="4" t="n">
         <v>160</v>
@@ -2044,7 +2044,7 @@
     </row>
     <row customHeight="1" ht="20" r="39" spans="1:10">
       <c r="A39" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>11</v>
@@ -2053,7 +2053,7 @@
         <v>1</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E39" s="4" t="n">
         <v>3</v>
@@ -2076,7 +2076,7 @@
     </row>
     <row customHeight="1" ht="20" r="40" spans="1:10">
       <c r="A40" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>11</v>
@@ -2085,7 +2085,7 @@
         <v>1</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E40" s="4" t="n">
         <v>357</v>
@@ -2108,7 +2108,7 @@
     </row>
     <row customHeight="1" ht="20" r="41" spans="1:10">
       <c r="A41" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>11</v>
@@ -2117,7 +2117,7 @@
         <v>1</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E41" s="4" t="n">
         <v>350</v>
@@ -2140,7 +2140,7 @@
     </row>
     <row customHeight="1" ht="20" r="42" spans="1:10">
       <c r="A42" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>11</v>
@@ -2149,7 +2149,7 @@
         <v>1</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E42" s="4" t="n">
         <v>12</v>
@@ -2172,7 +2172,7 @@
     </row>
     <row customHeight="1" ht="20" r="43" spans="1:10">
       <c r="A43" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>11</v>
@@ -2181,7 +2181,7 @@
         <v>1</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E43" s="4" t="n">
         <v>1</v>
@@ -2204,7 +2204,7 @@
     </row>
     <row customHeight="1" ht="20" r="44" spans="1:10">
       <c r="A44" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>11</v>
@@ -2236,7 +2236,7 @@
     </row>
     <row customHeight="1" ht="20" r="45" spans="1:10">
       <c r="A45" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>11</v>
@@ -2245,7 +2245,7 @@
         <v>1</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E45" s="4" t="n">
         <v>1</v>
@@ -2268,7 +2268,7 @@
     </row>
     <row customHeight="1" ht="20" r="46" spans="1:10">
       <c r="A46" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>11</v>
@@ -2300,7 +2300,7 @@
     </row>
     <row customHeight="1" ht="20" r="47" spans="1:10">
       <c r="A47" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>11</v>
@@ -2309,7 +2309,7 @@
         <v>1</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E47" s="4" t="n">
         <v>192</v>
@@ -2332,7 +2332,7 @@
     </row>
     <row customHeight="1" ht="20" r="48" spans="1:10">
       <c r="A48" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>11</v>
@@ -2341,7 +2341,7 @@
         <v>1</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E48" s="4" t="n">
         <v>13</v>
@@ -2364,7 +2364,7 @@
     </row>
     <row customHeight="1" ht="20" r="49" spans="1:10">
       <c r="A49" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>11</v>
@@ -2373,7 +2373,7 @@
         <v>1</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E49" s="4" t="n">
         <v>122</v>
@@ -2396,7 +2396,7 @@
     </row>
     <row customHeight="1" ht="20" r="50" spans="1:10">
       <c r="A50" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>11</v>
@@ -2405,7 +2405,7 @@
         <v>1</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>101</v>
+        <v>14</v>
       </c>
       <c r="E50" s="4" t="n">
         <v>4</v>
